--- a/Completed Projects/Riazeda/VO/03- variation order for MCC panel.xlsx
+++ b/Completed Projects/Riazeda/VO/03- variation order for MCC panel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B45019-1351-4222-9ADD-5CD999B00760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B13807-227A-4F50-9021-56E22356E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,10 +931,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="11">
-        <v>425000</v>
+        <v>785000</v>
       </c>
       <c r="D32" s="11">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="E32" s="12">
         <v>0</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="H32" s="11">
         <f>SUM(C32+D32)*G32</f>
-        <v>435000</v>
+        <v>810000</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="22" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,7 +962,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="21">
         <f>SUM(H32:H32)</f>
-        <v>435000</v>
+        <v>810000</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="23"/>
